--- a/biology/Médecine/Hôpital_militaire_de_Gabès/Hôpital_militaire_de_Gabès.xlsx
+++ b/biology/Médecine/Hôpital_militaire_de_Gabès/Hôpital_militaire_de_Gabès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_de_Gab%C3%A8s</t>
+          <t>Hôpital_militaire_de_Gabès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital militaire de Gabès est un hôpital militaire tunisien situé à Gabès en Tunisie, un établissement public à caractère administratif doté de la personnalité morale et de l'autonomie financière. Il est créé en 1989.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_de_Gab%C3%A8s</t>
+          <t>Hôpital_militaire_de_Gabès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hôpital a pour mission principale de dispenser des soins hautement spécialisés par l'emploi de technologie moderne et par la mise en place d'organes de gestion appropriés. Il fonctionne comme centre de diagnostic, de traitement et d'expertise médicale.
 Ses services hospitaliers spécialisés sont :
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_de_Gab%C3%A8s</t>
+          <t>Hôpital_militaire_de_Gabès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hôpital militaire de Gabès sur le site officiel du ministère de la Défense
  Portail de la médecine   Portail de l’histoire militaire   Portail de la Tunisie                   </t>
